--- a/biology/Botanique/Vignoble_de_Saale-Unstrut/Vignoble_de_Saale-Unstrut.xlsx
+++ b/biology/Botanique/Vignoble_de_Saale-Unstrut/Vignoble_de_Saale-Unstrut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Saale-Unstrut est une région viticole située principalement en Saxe-Anhalt. Dominée par les blancs, c'est la plus septentrionale des 13 régions de production de vin de qualité en Allemagne. Le vignoble s'étend le long de l'Unstrut de Laucha jusqu'à Naumburg et le long de la Saale de Iéna à Burgwerben, ainsi que sur quelques coteaux isolés à Bad Sulza, près de Zeitz, Seeburg, Beyernaumburg et même à Werder (Havel) près de Potsdam.
 La culture du vin est attestée dans la région en 998 et se développe durant le Moyen Âge pour atteindre 10000 hectares. La guerre de Trente Ans et les changements climatiques conduisent à un recul du vignoble. La région Saale-Unstrut est aussi la première région allemande touchée par le phylloxéra et, en 1919, la surface plantée en vigne n'est plus que de 100 hectares.
@@ -514,7 +526,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(de) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en allemand intitulé « Saale-Unstrut-Region » (voir la liste des auteurs).
  Portail de la vigne et du vin   Portail de la Saxe-Anhalt                    </t>
